--- a/CCC_Travel_Sheet.xlsx
+++ b/CCC_Travel_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjhlvh/Desktop/Chris Travel 2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC971657-CFB3-484D-B8EF-8F74E7C529D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4814A40-92BC-4B29-897C-760CFAB0574E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Access Communications CONTRACTOR TRAVEL Request Form</t>
   </si>
@@ -44,22 +44,13 @@
     <t>Contractor Name</t>
   </si>
   <si>
-    <t>Chris Barker</t>
-  </si>
-  <si>
     <t>Installer Code</t>
   </si>
   <si>
-    <t>O267</t>
-  </si>
-  <si>
     <t>GST Number</t>
   </si>
   <si>
     <t>Date Submitted</t>
-  </si>
-  <si>
-    <t>Oct 12 2025</t>
   </si>
   <si>
     <t>For Travel To</t>
@@ -1498,8 +1489,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1526,9 +1517,7 @@
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="86"/>
       <c r="C2" s="87"/>
       <c r="D2" s="28"/>
       <c r="E2" s="29"/>
@@ -1536,11 +1525,9 @@
     </row>
     <row r="3" spans="1:6" ht="17.100000000000001" thickBot="1">
       <c r="A3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B3" s="86"/>
       <c r="C3" s="87"/>
       <c r="D3" s="32"/>
       <c r="E3" s="3"/>
@@ -1548,7 +1535,7 @@
     </row>
     <row r="4" spans="1:6" ht="17.100000000000001" thickBot="1">
       <c r="A4" s="31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="88"/>
       <c r="C4" s="89"/>
@@ -1558,11 +1545,9 @@
     </row>
     <row r="5" spans="1:6" ht="17.100000000000001" thickBot="1">
       <c r="A5" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="90" t="s">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B5" s="90"/>
       <c r="C5" s="91"/>
       <c r="D5" s="2"/>
       <c r="E5" s="35"/>
@@ -1570,7 +1555,7 @@
     </row>
     <row r="6" spans="1:6" ht="17.100000000000001" thickBot="1">
       <c r="A6" s="34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="92"/>
       <c r="C6" s="91"/>
@@ -1580,7 +1565,7 @@
     </row>
     <row r="7" spans="1:6" ht="17.100000000000001" thickBot="1">
       <c r="A7" s="34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="92"/>
       <c r="C7" s="91"/>
@@ -1599,10 +1584,10 @@
     <row r="9" spans="1:6" ht="17.100000000000001" thickBot="1">
       <c r="A9" s="34"/>
       <c r="B9" s="17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1610,25 +1595,21 @@
     </row>
     <row r="10" spans="1:6" ht="17.100000000000001" thickBot="1">
       <c r="A10" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="85">
-        <v>45929</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B10" s="85"/>
       <c r="C10" s="85"/>
       <c r="D10" s="2"/>
       <c r="E10" s="106" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F10" s="107"/>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1">
       <c r="A11" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="85">
-        <v>45937</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B11" s="85"/>
       <c r="C11" s="85"/>
       <c r="D11" s="2"/>
       <c r="E11" s="108"/>
@@ -1644,7 +1625,7 @@
     </row>
     <row r="13" spans="1:6" ht="17.100000000000001" thickBot="1">
       <c r="A13" s="39" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1654,13 +1635,13 @@
     </row>
     <row r="14" spans="1:6" ht="18" thickBot="1">
       <c r="A14" s="40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="110"/>
@@ -1678,7 +1659,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="106" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="107"/>
     </row>
@@ -1692,7 +1673,7 @@
     </row>
     <row r="17" spans="1:6" ht="17.100000000000001" thickBot="1">
       <c r="A17" s="39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1702,16 +1683,16 @@
     </row>
     <row r="18" spans="1:6" ht="18" thickBot="1">
       <c r="A18" s="40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C18" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E18" s="93"/>
       <c r="F18" s="94"/>
@@ -1726,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E19" s="97"/>
       <c r="F19" s="97"/>
@@ -1736,23 +1717,23 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E20" s="95"/>
       <c r="F20" s="96"/>
     </row>
     <row r="21" spans="1:6" ht="17.100000000000001" thickBot="1">
       <c r="A21" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E21" s="95"/>
       <c r="F21" s="96"/>
@@ -1762,7 +1743,7 @@
       <c r="B22" s="85"/>
       <c r="C22" s="85"/>
       <c r="D22" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E22" s="95"/>
       <c r="F22" s="96"/>
@@ -1772,7 +1753,7 @@
       <c r="B23" s="85"/>
       <c r="C23" s="85"/>
       <c r="D23" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E23" s="95"/>
       <c r="F23" s="96"/>
@@ -1782,7 +1763,7 @@
       <c r="B24" s="85"/>
       <c r="C24" s="85"/>
       <c r="D24" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E24" s="95"/>
       <c r="F24" s="96"/>
@@ -1792,7 +1773,7 @@
       <c r="B25" s="85"/>
       <c r="C25" s="85"/>
       <c r="D25" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E25" s="95"/>
       <c r="F25" s="96"/>
@@ -1802,21 +1783,21 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E26" s="95"/>
       <c r="F26" s="96"/>
     </row>
     <row r="27" spans="1:6" ht="15.95">
       <c r="A27" s="112" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B27" s="114" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" s="115"/>
       <c r="D27" s="116" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E27" s="117"/>
       <c r="F27" s="115"/>
@@ -1824,19 +1805,19 @@
     <row r="28" spans="1:6" ht="17.100000000000001" thickBot="1">
       <c r="A28" s="113"/>
       <c r="B28" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="F28" s="47" t="s">
         <v>28</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.100000000000001">
@@ -2021,7 +2002,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="49"/>
       <c r="E51" s="50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F51" s="99">
         <f>SUM(F29:F50)</f>
@@ -2030,14 +2011,14 @@
     </row>
     <row r="52" spans="1:6" ht="17.100000000000001" thickBot="1">
       <c r="A52" s="34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="11"/>
       <c r="D52" s="49"/>
       <c r="E52" s="51"/>
       <c r="F52" s="65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.100000000000001" thickBot="1">
@@ -2046,7 +2027,7 @@
       <c r="C53" s="11"/>
       <c r="D53" s="49"/>
       <c r="E53" s="50" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F53" s="66">
         <f>ROUND(F51*0.85,2)</f>
@@ -2067,7 +2048,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="49"/>
       <c r="E55" s="50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F55" s="67">
         <f>F53</f>
@@ -2080,7 +2061,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="13"/>
       <c r="E56" s="53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F56" s="68">
         <f>C15+C19</f>
@@ -2092,7 +2073,7 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="52" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E57" s="53"/>
       <c r="F57" s="69">
@@ -2102,12 +2083,12 @@
     </row>
     <row r="58" spans="1:6" ht="17.100000000000001" thickBot="1">
       <c r="A58" s="55" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="52" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E58" s="53"/>
       <c r="F58" s="69">
@@ -2120,7 +2101,7 @@
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="54" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="70">
@@ -2146,7 +2127,7 @@
     </row>
     <row r="62" spans="1:6" ht="24" thickBot="1">
       <c r="A62" s="58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="21"/>
@@ -2164,7 +2145,7 @@
     </row>
     <row r="64" spans="1:6" ht="24" thickBot="1">
       <c r="A64" s="58" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
@@ -2182,7 +2163,7 @@
     </row>
     <row r="66" spans="1:6" ht="24" thickBot="1">
       <c r="A66" s="58" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
@@ -2200,7 +2181,7 @@
     </row>
     <row r="68" spans="1:6" ht="15.95">
       <c r="A68" s="56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B68" s="57"/>
       <c r="C68" s="57"/>
@@ -2210,7 +2191,7 @@
     </row>
     <row r="69" spans="1:6" ht="15.95">
       <c r="A69" s="56" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B69" s="57"/>
       <c r="C69" s="57"/>
